--- a/data/trans_orig/P6714-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6714-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA680EA0-C1E9-4304-A426-CBA18976567B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A23D8E3-52E7-4C0F-9D44-D42D61122ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7E827155-E069-42B1-9795-C78245686038}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C7390929-580C-401F-8786-0DC7B0A61286}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="361">
   <si>
     <t>Población según si se sienten comprometidos con su profesión en 2012 (Tasa respuesta: 33,87%)</t>
   </si>
@@ -87,1009 +87,1039 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
   </si>
   <si>
     <t>28,02%</t>
   </si>
   <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se sienten comprometidos con su profesión en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
   </si>
   <si>
     <t>20,42%</t>
   </si>
   <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se sienten comprometidos con su profesión en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
   </si>
   <si>
     <t>5,83%</t>
   </si>
   <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
   </si>
   <si>
     <t>5,19%</t>
   </si>
   <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
+    <t>7,19%</t>
   </si>
   <si>
     <t>20,06%</t>
   </si>
   <si>
-    <t>22,24%</t>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
   </si>
   <si>
     <t>17,88%</t>
   </si>
   <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
   </si>
   <si>
     <t>19,14%</t>
   </si>
   <si>
+    <t>17,56%</t>
+  </si>
+  <si>
     <t>20,83%</t>
   </si>
   <si>
     <t>26,63%</t>
   </si>
   <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
   </si>
   <si>
     <t>28,1%</t>
   </si>
   <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
   </si>
   <si>
     <t>45,3%</t>
   </si>
   <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
   </si>
   <si>
     <t>44,19%</t>
   </si>
   <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
   </si>
   <si>
     <t>44,83%</t>
   </si>
   <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
   </si>
 </sst>
 </file>
@@ -1501,7 +1531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B427942-147C-4DFD-8091-A7BBD38EC5E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019F2FC2-63B8-4C25-A8E0-834E30EED1D1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2274,10 +2304,10 @@
         <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,13 +2322,13 @@
         <v>8648</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2307,13 +2337,13 @@
         <v>4751</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -2322,13 +2352,13 @@
         <v>13399</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,13 +2373,13 @@
         <v>29927</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>23</v>
@@ -2358,13 +2388,13 @@
         <v>26453</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>51</v>
@@ -2373,13 +2403,13 @@
         <v>56380</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,13 +2424,13 @@
         <v>51357</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -2409,13 +2439,13 @@
         <v>40810</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>85</v>
@@ -2424,13 +2454,13 @@
         <v>92167</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,13 +2475,13 @@
         <v>220409</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>144</v>
@@ -2460,13 +2490,13 @@
         <v>161005</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>343</v>
@@ -2475,13 +2505,13 @@
         <v>381414</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,13 +2579,13 @@
         <v>22549</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -2564,13 +2594,13 @@
         <v>17738</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -2579,13 +2609,13 @@
         <v>40287</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,13 +2630,13 @@
         <v>50441</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>34</v>
@@ -2615,13 +2645,13 @@
         <v>40125</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>78</v>
@@ -2630,13 +2660,13 @@
         <v>90567</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,13 +2681,13 @@
         <v>192336</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>143</v>
@@ -2669,10 +2699,10 @@
         <v>37</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>324</v>
@@ -2681,13 +2711,13 @@
         <v>346960</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,13 +2732,13 @@
         <v>321424</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>224</v>
@@ -2717,13 +2747,13 @@
         <v>238275</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>533</v>
@@ -2732,13 +2762,13 @@
         <v>559698</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,13 +2783,13 @@
         <v>827074</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>453</v>
@@ -2768,13 +2798,13 @@
         <v>493000</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>1225</v>
@@ -2783,13 +2813,13 @@
         <v>1320074</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,7 +2875,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2864,7 +2894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCCC60B-1545-4353-A835-B5C5C384D42A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0196067-AECB-4CB8-A18B-0A9705EE0759}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2881,7 +2911,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2988,13 +3018,13 @@
         <v>8576</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3003,13 +3033,13 @@
         <v>1033</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -3018,13 +3048,13 @@
         <v>9609</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3039,13 +3069,13 @@
         <v>8662</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -3054,13 +3084,13 @@
         <v>10026</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -3069,13 +3099,13 @@
         <v>18688</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>205</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,13 +3120,13 @@
         <v>30739</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
@@ -3105,13 +3135,13 @@
         <v>19641</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M6" s="7">
         <v>49</v>
@@ -3120,13 +3150,13 @@
         <v>50381</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,13 +3171,13 @@
         <v>41789</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -3156,13 +3186,13 @@
         <v>16057</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -3171,13 +3201,13 @@
         <v>57846</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,13 +3222,13 @@
         <v>53351</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>25</v>
@@ -3207,13 +3237,13 @@
         <v>25330</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M8" s="7">
         <v>74</v>
@@ -3222,13 +3252,13 @@
         <v>78681</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,13 +3326,13 @@
         <v>25992</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -3311,13 +3341,13 @@
         <v>22048</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>68</v>
+        <v>242</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -3326,13 +3356,13 @@
         <v>48040</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>238</v>
+        <v>157</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,13 +3377,13 @@
         <v>49444</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H11" s="7">
         <v>50</v>
@@ -3362,13 +3392,13 @@
         <v>50088</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="M11" s="7">
         <v>96</v>
@@ -3377,13 +3407,13 @@
         <v>99532</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>129</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,13 +3428,13 @@
         <v>216220</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>85</v>
+        <v>255</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H12" s="7">
         <v>130</v>
@@ -3413,13 +3443,13 @@
         <v>128524</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="M12" s="7">
         <v>328</v>
@@ -3428,13 +3458,13 @@
         <v>344743</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,13 +3479,13 @@
         <v>264540</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="H13" s="7">
         <v>213</v>
@@ -3464,13 +3494,13 @@
         <v>216678</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>466</v>
@@ -3479,13 +3509,13 @@
         <v>481218</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,13 +3530,13 @@
         <v>369001</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="H14" s="7">
         <v>225</v>
@@ -3515,13 +3545,13 @@
         <v>235438</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="M14" s="7">
         <v>570</v>
@@ -3530,13 +3560,13 @@
         <v>604439</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,13 +3634,13 @@
         <v>4071</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>274</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3619,13 +3649,13 @@
         <v>4424</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>277</v>
+        <v>160</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3637,10 +3667,10 @@
         <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,13 +3685,13 @@
         <v>16828</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -3670,13 +3700,13 @@
         <v>13982</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>289</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -3685,13 +3715,13 @@
         <v>30810</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3736,13 @@
         <v>37745</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="H18" s="7">
         <v>37</v>
@@ -3721,13 +3751,13 @@
         <v>36554</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="M18" s="7">
         <v>69</v>
@@ -3736,13 +3766,13 @@
         <v>74299</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3787,13 @@
         <v>71579</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>139</v>
+        <v>302</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -3772,13 +3802,13 @@
         <v>57603</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>289</v>
+        <v>84</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="M19" s="7">
         <v>123</v>
@@ -3787,13 +3817,13 @@
         <v>129183</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,13 +3838,13 @@
         <v>220385</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="H20" s="7">
         <v>187</v>
@@ -3823,13 +3853,13 @@
         <v>195890</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="M20" s="7">
         <v>392</v>
@@ -3838,13 +3868,13 @@
         <v>416275</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3942,13 @@
         <v>38639</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -3927,13 +3957,13 @@
         <v>27505</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="M22" s="7">
         <v>60</v>
@@ -3942,13 +3972,13 @@
         <v>66143</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,13 +3993,13 @@
         <v>74934</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>327</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="H23" s="7">
         <v>74</v>
@@ -3978,13 +4008,13 @@
         <v>74096</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="M23" s="7">
         <v>142</v>
@@ -3993,13 +4023,13 @@
         <v>149030</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +4044,13 @@
         <v>284704</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>88</v>
+        <v>336</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="H24" s="7">
         <v>187</v>
@@ -4029,13 +4059,13 @@
         <v>184719</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="M24" s="7">
         <v>446</v>
@@ -4044,13 +4074,13 @@
         <v>469423</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>211</v>
+        <v>342</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,13 +4095,13 @@
         <v>377910</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="H25" s="7">
         <v>286</v>
@@ -4080,13 +4110,13 @@
         <v>290337</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="M25" s="7">
         <v>645</v>
@@ -4095,13 +4125,13 @@
         <v>668247</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,13 +4146,13 @@
         <v>642738</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="H26" s="7">
         <v>437</v>
@@ -4131,13 +4161,13 @@
         <v>456657</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="M26" s="7">
         <v>1036</v>
@@ -4146,13 +4176,13 @@
         <v>1099394</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,7 +4238,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6714-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6714-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A23D8E3-52E7-4C0F-9D44-D42D61122ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E5854D0-E4CF-4FB5-A413-C1D865D2052A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C7390929-580C-401F-8786-0DC7B0A61286}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{729B7DC1-779A-418E-BED7-22363B977049}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="354">
   <si>
     <t>Población según si se sienten comprometidos con su profesión en 2012 (Tasa respuesta: 33,87%)</t>
   </si>
@@ -75,1051 +75,1030 @@
     <t>1,76%</t>
   </si>
   <si>
-    <t>0,48%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
   </si>
   <si>
     <t>4,84%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se sienten comprometidos con su profesión en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se sienten comprometidos con su profesión en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
   </si>
   <si>
     <t>25,52%</t>
   </si>
   <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
   </si>
   <si>
     <t>45,3%</t>
   </si>
   <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
   </si>
   <si>
     <t>44,19%</t>
   </si>
   <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
   </si>
   <si>
     <t>44,83%</t>
   </si>
   <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
   </si>
 </sst>
 </file>
@@ -1531,7 +1510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019F2FC2-63B8-4C25-A8E0-834E30EED1D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4191B94-8B85-4F7B-98E1-CB88F9B66C6C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2047,10 +2026,10 @@
         <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,13 +2044,13 @@
         <v>137396</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>94</v>
@@ -2080,13 +2059,13 @@
         <v>100127</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>224</v>
@@ -2095,13 +2074,13 @@
         <v>237523</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,13 +2095,13 @@
         <v>229795</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>166</v>
@@ -2131,13 +2110,13 @@
         <v>175633</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>388</v>
@@ -2146,13 +2125,13 @@
         <v>405428</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,13 +2146,13 @@
         <v>501342</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>233</v>
@@ -2182,13 +2161,13 @@
         <v>249853</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>703</v>
@@ -2197,13 +2176,13 @@
         <v>751195</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2259,7 +2238,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2271,13 +2250,13 @@
         <v>3893</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2286,13 +2265,13 @@
         <v>1879</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2301,13 +2280,13 @@
         <v>5772</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,13 +2301,13 @@
         <v>8648</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2337,13 +2316,13 @@
         <v>4751</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -2352,13 +2331,13 @@
         <v>13399</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,13 +2352,13 @@
         <v>29927</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>23</v>
@@ -2388,13 +2367,13 @@
         <v>26453</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>51</v>
@@ -2403,13 +2382,13 @@
         <v>56380</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,13 +2403,13 @@
         <v>51357</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -2439,13 +2418,13 @@
         <v>40810</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>85</v>
@@ -2454,13 +2433,13 @@
         <v>92167</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,13 +2454,13 @@
         <v>220409</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>144</v>
@@ -2490,13 +2469,13 @@
         <v>161005</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>343</v>
@@ -2505,13 +2484,13 @@
         <v>381414</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,13 +2558,13 @@
         <v>22549</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -2594,13 +2573,13 @@
         <v>17738</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -2609,13 +2588,13 @@
         <v>40287</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,13 +2609,13 @@
         <v>50441</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>34</v>
@@ -2645,13 +2624,13 @@
         <v>40125</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>78</v>
@@ -2660,13 +2639,13 @@
         <v>90567</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2660,13 @@
         <v>192336</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>143</v>
@@ -2699,10 +2678,10 @@
         <v>37</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M24" s="7">
         <v>324</v>
@@ -2711,13 +2690,13 @@
         <v>346960</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2711,13 @@
         <v>321424</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>88</v>
       </c>
       <c r="H25" s="7">
         <v>224</v>
@@ -2747,13 +2726,13 @@
         <v>238275</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>533</v>
@@ -2762,13 +2741,13 @@
         <v>559698</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,13 +2762,13 @@
         <v>827074</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>453</v>
@@ -2798,13 +2777,13 @@
         <v>493000</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>1225</v>
@@ -2813,13 +2792,13 @@
         <v>1320074</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,7 +2854,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2894,7 +2873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0196067-AECB-4CB8-A18B-0A9705EE0759}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1F343D-4196-4EEF-8245-87724E86700B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2911,7 +2890,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3018,13 +2997,13 @@
         <v>8576</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3033,13 +3012,13 @@
         <v>1033</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>199</v>
+        <v>69</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -3048,13 +3027,13 @@
         <v>9609</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3048,13 @@
         <v>8662</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>204</v>
+        <v>65</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -3084,13 +3063,13 @@
         <v>10026</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -3099,13 +3078,13 @@
         <v>18688</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,13 +3099,13 @@
         <v>30739</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
@@ -3135,13 +3114,13 @@
         <v>19641</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M6" s="7">
         <v>49</v>
@@ -3150,13 +3129,13 @@
         <v>50381</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,13 +3150,13 @@
         <v>41789</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -3186,13 +3165,13 @@
         <v>16057</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -3201,13 +3180,13 @@
         <v>57846</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>227</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,13 +3201,13 @@
         <v>53351</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
         <v>25</v>
@@ -3237,13 +3216,13 @@
         <v>25330</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
         <v>74</v>
@@ -3252,13 +3231,13 @@
         <v>78681</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,13 +3305,13 @@
         <v>25992</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>111</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -3341,13 +3320,13 @@
         <v>22048</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -3356,13 +3335,13 @@
         <v>48040</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,13 +3356,13 @@
         <v>49444</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H11" s="7">
         <v>50</v>
@@ -3392,13 +3371,13 @@
         <v>50088</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
         <v>96</v>
@@ -3407,13 +3386,13 @@
         <v>99532</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,13 +3407,13 @@
         <v>216220</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H12" s="7">
         <v>130</v>
@@ -3443,13 +3422,13 @@
         <v>128524</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M12" s="7">
         <v>328</v>
@@ -3458,13 +3437,13 @@
         <v>344743</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,13 +3458,13 @@
         <v>264540</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H13" s="7">
         <v>213</v>
@@ -3494,13 +3473,13 @@
         <v>216678</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="M13" s="7">
         <v>466</v>
@@ -3509,13 +3488,13 @@
         <v>481218</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,13 +3509,13 @@
         <v>369001</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="H14" s="7">
         <v>225</v>
@@ -3545,13 +3524,13 @@
         <v>235438</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="M14" s="7">
         <v>570</v>
@@ -3560,13 +3539,13 @@
         <v>604439</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,7 +3601,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3634,13 +3613,13 @@
         <v>4071</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3649,13 +3628,13 @@
         <v>4424</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>199</v>
+        <v>69</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>160</v>
+        <v>277</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3667,10 +3646,10 @@
         <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,13 +3664,13 @@
         <v>16828</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>281</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -3700,13 +3679,13 @@
         <v>13982</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>289</v>
+        <v>65</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -3715,13 +3694,13 @@
         <v>30810</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>126</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,13 +3715,13 @@
         <v>37745</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H18" s="7">
         <v>37</v>
@@ -3751,13 +3730,13 @@
         <v>36554</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="M18" s="7">
         <v>69</v>
@@ -3766,13 +3745,13 @@
         <v>74299</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3766,13 @@
         <v>71579</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -3802,13 +3781,13 @@
         <v>57603</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>84</v>
+        <v>301</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M19" s="7">
         <v>123</v>
@@ -3817,13 +3796,13 @@
         <v>129183</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,13 +3817,13 @@
         <v>220385</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H20" s="7">
         <v>187</v>
@@ -3853,13 +3832,13 @@
         <v>195890</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>57</v>
+        <v>310</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M20" s="7">
         <v>392</v>
@@ -3868,13 +3847,13 @@
         <v>416275</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3921,13 @@
         <v>38639</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -3957,13 +3936,13 @@
         <v>27505</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>322</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M22" s="7">
         <v>60</v>
@@ -3972,13 +3951,13 @@
         <v>66143</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>16</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,13 +3972,13 @@
         <v>74934</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H23" s="7">
         <v>74</v>
@@ -4008,13 +3987,13 @@
         <v>74096</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>329</v>
+        <v>240</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M23" s="7">
         <v>142</v>
@@ -4023,13 +4002,13 @@
         <v>149030</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4023,13 @@
         <v>284704</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>336</v>
+        <v>87</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H24" s="7">
         <v>187</v>
@@ -4059,13 +4038,13 @@
         <v>184719</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M24" s="7">
         <v>446</v>
@@ -4074,13 +4053,13 @@
         <v>469423</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,13 +4074,13 @@
         <v>377910</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H25" s="7">
         <v>286</v>
@@ -4110,13 +4089,13 @@
         <v>290337</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M25" s="7">
         <v>645</v>
@@ -4125,13 +4104,13 @@
         <v>668247</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4125,13 @@
         <v>642738</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="H26" s="7">
         <v>437</v>
@@ -4161,13 +4140,13 @@
         <v>456657</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M26" s="7">
         <v>1036</v>
@@ -4176,13 +4155,13 @@
         <v>1099394</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,7 +4217,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6714-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6714-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E5854D0-E4CF-4FB5-A413-C1D865D2052A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE39C84C-D590-416A-AD56-76555BA206F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{729B7DC1-779A-418E-BED7-22363B977049}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E0588FFA-2B08-474A-824F-11D1EAD0809D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="351">
   <si>
     <t>Población según si se sienten comprometidos con su profesión en 2012 (Tasa respuesta: 33,87%)</t>
   </si>
@@ -75,10 +75,10 @@
     <t>1,76%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
   </si>
   <si>
     <t>0,68%</t>
@@ -87,7 +87,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,43%</t>
+    <t>3,84%</t>
   </si>
   <si>
     <t>1,29%</t>
@@ -96,7 +96,7 @@
     <t>0,35%</t>
   </si>
   <si>
-    <t>3,07%</t>
+    <t>3,34%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -105,28 +105,28 @@
     <t>5,53%</t>
   </si>
   <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
   </si>
   <si>
     <t>5,01%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -135,28 +135,28 @@
     <t>13,59%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
   </si>
   <si>
     <t>20,03%</t>
   </si>
   <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
   </si>
   <si>
     <t>16,38%</t>
   </si>
   <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -165,10 +165,10 @@
     <t>21,88%</t>
   </si>
   <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
   </si>
   <si>
     <t>15,6%</t>
@@ -177,16 +177,16 @@
     <t>9,73%</t>
   </si>
   <si>
-    <t>22,89%</t>
+    <t>22,82%</t>
   </si>
   <si>
     <t>19,17%</t>
   </si>
   <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -195,28 +195,28 @@
     <t>57,24%</t>
   </si>
   <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
   </si>
   <si>
     <t>58,68%</t>
   </si>
   <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
   </si>
   <si>
     <t>57,86%</t>
   </si>
   <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
   </si>
   <si>
     <t>100%</t>
@@ -228,877 +228,868 @@
     <t>1,68%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se sienten comprometidos con su profesión en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
   </si>
   <si>
     <t>5,24%</t>
   </si>
   <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
   </si>
   <si>
     <t>25,31%</t>
   </si>
   <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se sienten comprometidos con su profesión en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
   </si>
   <si>
     <t>45,3%</t>
   </si>
   <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
   </si>
   <si>
     <t>44,19%</t>
   </si>
   <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
   </si>
   <si>
     <t>44,83%</t>
   </si>
   <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
   </si>
 </sst>
 </file>
@@ -1510,7 +1501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4191B94-8B85-4F7B-98E1-CB88F9B66C6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415351BF-26D0-4D36-988E-5C0FFA1A117E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2026,10 +2017,10 @@
         <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2044,13 +2035,13 @@
         <v>137396</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>94</v>
@@ -2059,13 +2050,13 @@
         <v>100127</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>224</v>
@@ -2074,13 +2065,13 @@
         <v>237523</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,13 +2086,13 @@
         <v>229795</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>166</v>
@@ -2110,13 +2101,13 @@
         <v>175633</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>388</v>
@@ -2125,13 +2116,13 @@
         <v>405428</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2146,13 +2137,13 @@
         <v>501342</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>233</v>
@@ -2161,13 +2152,13 @@
         <v>249853</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>703</v>
@@ -2176,13 +2167,13 @@
         <v>751195</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,7 +2229,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2250,13 +2241,13 @@
         <v>3893</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2265,13 +2256,13 @@
         <v>1879</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2280,13 +2271,13 @@
         <v>5772</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2301,13 +2292,13 @@
         <v>8648</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2316,13 +2307,13 @@
         <v>4751</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -2331,13 +2322,13 @@
         <v>13399</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2352,13 +2343,13 @@
         <v>29927</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>23</v>
@@ -2367,13 +2358,13 @@
         <v>26453</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>51</v>
@@ -2382,13 +2373,13 @@
         <v>56380</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2403,13 +2394,13 @@
         <v>51357</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -2418,13 +2409,13 @@
         <v>40810</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>85</v>
@@ -2433,13 +2424,13 @@
         <v>92167</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,13 +2445,13 @@
         <v>220409</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>144</v>
@@ -2469,13 +2460,13 @@
         <v>161005</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>343</v>
@@ -2484,13 +2475,13 @@
         <v>381414</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2558,13 +2549,13 @@
         <v>22549</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -2573,13 +2564,13 @@
         <v>17738</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -2588,10 +2579,10 @@
         <v>40287</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>157</v>
@@ -2612,10 +2603,10 @@
         <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>34</v>
@@ -2624,13 +2615,13 @@
         <v>40125</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>78</v>
@@ -2639,13 +2630,13 @@
         <v>90567</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,13 +2651,13 @@
         <v>192336</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>143</v>
@@ -2678,10 +2669,10 @@
         <v>37</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>324</v>
@@ -2690,13 +2681,13 @@
         <v>346960</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2717,7 +2708,7 @@
         <v>174</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>224</v>
@@ -2726,13 +2717,13 @@
         <v>238275</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>533</v>
@@ -2741,13 +2732,13 @@
         <v>559698</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2753,13 @@
         <v>827074</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>453</v>
@@ -2777,13 +2768,13 @@
         <v>493000</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>1225</v>
@@ -2792,13 +2783,13 @@
         <v>1320074</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,7 +2845,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2873,7 +2864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1F343D-4196-4EEF-8245-87724E86700B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7F6F61-361C-4BBF-AC81-4394CA730147}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2890,7 +2881,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2997,13 +2988,13 @@
         <v>8576</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3012,13 +3003,13 @@
         <v>1033</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -3027,13 +3018,13 @@
         <v>9609</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,13 +3039,13 @@
         <v>8662</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -3063,13 +3054,13 @@
         <v>10026</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>202</v>
+        <v>49</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -3078,13 +3069,13 @@
         <v>18688</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,13 +3090,13 @@
         <v>30739</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
@@ -3114,13 +3105,13 @@
         <v>19641</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M6" s="7">
         <v>49</v>
@@ -3129,13 +3120,13 @@
         <v>50381</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,13 +3141,13 @@
         <v>41789</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -3165,13 +3156,13 @@
         <v>16057</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -3180,13 +3171,13 @@
         <v>57846</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>223</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,13 +3192,13 @@
         <v>53351</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H8" s="7">
         <v>25</v>
@@ -3216,13 +3207,13 @@
         <v>25330</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M8" s="7">
         <v>74</v>
@@ -3231,13 +3222,13 @@
         <v>78681</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,13 +3296,13 @@
         <v>25992</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>111</v>
+        <v>234</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -3320,13 +3311,13 @@
         <v>22048</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>234</v>
+        <v>68</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -3335,13 +3326,13 @@
         <v>48040</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,13 +3347,13 @@
         <v>49444</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H11" s="7">
         <v>50</v>
@@ -3371,13 +3362,13 @@
         <v>50088</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M11" s="7">
         <v>96</v>
@@ -3386,13 +3377,13 @@
         <v>99532</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>245</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,13 +3398,13 @@
         <v>216220</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>247</v>
+        <v>85</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H12" s="7">
         <v>130</v>
@@ -3422,13 +3413,13 @@
         <v>128524</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M12" s="7">
         <v>328</v>
@@ -3437,13 +3428,13 @@
         <v>344743</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3449,13 @@
         <v>264540</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H13" s="7">
         <v>213</v>
@@ -3473,7 +3464,7 @@
         <v>216678</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>259</v>
@@ -3601,7 +3592,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3628,7 +3619,7 @@
         <v>4424</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>276</v>
@@ -3667,10 +3658,10 @@
         <v>280</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -3679,13 +3670,13 @@
         <v>13982</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -3694,13 +3685,13 @@
         <v>30810</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,13 +3706,13 @@
         <v>37745</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H18" s="7">
         <v>37</v>
@@ -3730,13 +3721,13 @@
         <v>36554</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M18" s="7">
         <v>69</v>
@@ -3745,13 +3736,13 @@
         <v>74299</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,13 +3757,13 @@
         <v>71579</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -3781,13 +3772,13 @@
         <v>57603</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M19" s="7">
         <v>123</v>
@@ -3796,13 +3787,13 @@
         <v>129183</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,13 +3808,13 @@
         <v>220385</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H20" s="7">
         <v>187</v>
@@ -3832,13 +3823,13 @@
         <v>195890</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M20" s="7">
         <v>392</v>
@@ -3847,13 +3838,13 @@
         <v>416275</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,13 +3912,13 @@
         <v>38639</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -3936,13 +3927,13 @@
         <v>27505</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>315</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M22" s="7">
         <v>60</v>
@@ -3951,13 +3942,13 @@
         <v>66143</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>321</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,13 +3963,13 @@
         <v>74934</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>323</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H23" s="7">
         <v>74</v>
@@ -3987,13 +3978,13 @@
         <v>74096</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>240</v>
+        <v>321</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M23" s="7">
         <v>142</v>
@@ -4002,13 +3993,13 @@
         <v>149030</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,13 +4014,13 @@
         <v>284704</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H24" s="7">
         <v>187</v>
@@ -4038,13 +4029,13 @@
         <v>184719</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M24" s="7">
         <v>446</v>
@@ -4053,13 +4044,13 @@
         <v>469423</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>336</v>
+        <v>211</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,13 +4065,13 @@
         <v>377910</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H25" s="7">
         <v>286</v>
@@ -4089,13 +4080,13 @@
         <v>290337</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M25" s="7">
         <v>645</v>
@@ -4104,13 +4095,13 @@
         <v>668247</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>214</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,13 +4116,13 @@
         <v>642738</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H26" s="7">
         <v>437</v>
@@ -4140,13 +4131,13 @@
         <v>456657</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M26" s="7">
         <v>1036</v>
@@ -4155,13 +4146,13 @@
         <v>1099394</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,7 +4208,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6714-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6714-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE39C84C-D590-416A-AD56-76555BA206F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ADBBC8C-55BE-4B5D-9405-A626D0CF2870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E0588FFA-2B08-474A-824F-11D1EAD0809D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5518280D-C1BB-435E-B00A-9A7E9313FCD6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -1501,7 +1501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415351BF-26D0-4D36-988E-5C0FFA1A117E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775CCE71-466F-4AD3-9620-E89975C0AFB3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2200,7 +2200,7 @@
         <v>531</v>
       </c>
       <c r="I15" s="7">
-        <v>568888</v>
+        <v>568887</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -2678,7 +2678,7 @@
         <v>324</v>
       </c>
       <c r="N24" s="7">
-        <v>346960</v>
+        <v>346959</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>171</v>
@@ -2831,7 +2831,7 @@
         <v>2199</v>
       </c>
       <c r="N27" s="7">
-        <v>2357586</v>
+        <v>2357585</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -2864,7 +2864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7F6F61-361C-4BBF-AC81-4394CA730147}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6941782-0495-408A-A386-0FAFBD4F8B86}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4041,7 +4041,7 @@
         <v>446</v>
       </c>
       <c r="N24" s="7">
-        <v>469423</v>
+        <v>469424</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>332</v>
@@ -4143,7 +4143,7 @@
         <v>1036</v>
       </c>
       <c r="N26" s="7">
-        <v>1099394</v>
+        <v>1099395</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>348</v>
@@ -4194,7 +4194,7 @@
         <v>2329</v>
       </c>
       <c r="N27" s="7">
-        <v>2452238</v>
+        <v>2452239</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
